--- a/loss_trades.xlsx
+++ b/loss_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,24 +468,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ca2bfefb-f23f-4660-a9f3-c7574daaeded</t>
+          <t>40970e21-aa22-4d50-a566-d28d86a053b9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>market_buy</t>
+          <t>market_sell</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99154.2</v>
+        <v>88833.7</v>
       </c>
       <c r="D2" t="n">
-        <v>99125.10000000001</v>
+        <v>88849.89999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>-29.09999999999127</v>
+        <v>-16.19999999999709</v>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a021d8d5-8333-402a-ba3d-013cc096cdc7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88789.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88824.60000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-35.10000000000582</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>

--- a/loss_trades.xlsx
+++ b/loss_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,21 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>return percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>loss risk percentage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>40970e21-aa22-4d50-a566-d28d86a053b9</t>
+          <t>2a7bfa16-e426-4edf-88a5-48c7d56c3c1b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,24 +487,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88833.7</v>
+        <v>86911.2</v>
       </c>
       <c r="D2" t="n">
-        <v>88849.89999999999</v>
+        <v>86923.2</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.19999999999709</v>
+        <v>-12</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a021d8d5-8333-402a-ba3d-013cc096cdc7</t>
+          <t>9821011b-f5b8-438c-86e6-d64673703499</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,18 +519,152 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88789.5</v>
+        <v>86574.7</v>
       </c>
       <c r="D3" t="n">
-        <v>88824.60000000001</v>
+        <v>86590.2</v>
       </c>
       <c r="E3" t="n">
-        <v>-35.10000000000582</v>
+        <v>-15.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ad0e6ce4-d635-4bbf-b299-000741dcb6f7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>86735.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86746.60000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-10.80000000000291</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f8595866-26c9-40ab-88ba-6cd0e5f1f70b</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>86915.10000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86897.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-17.30000000000291</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>81147f1d-8568-4312-9048-5af6e9b2fe58</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>86723.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86615.10000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-108.0999999999913</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>74152538-5cca-4b6d-90be-668a8ce63b4d</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>86700.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86672.10000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-28.69999999999709</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/loss_trades.xlsx
+++ b/loss_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,26 +474,31 @@
           <t>loss risk percentage</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2a7bfa16-e426-4edf-88a5-48c7d56c3c1b</t>
+          <t>72eb50ba-923f-433d-9f08-e9709ddc5e9e</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>market_sell</t>
+          <t>market_buy</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86911.2</v>
+        <v>85894.5</v>
       </c>
       <c r="D2" t="n">
-        <v>86923.2</v>
+        <v>85880.10000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>-12</v>
+        <v>-14.39999999999418</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -501,16 +506,21 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
         <v>0.01</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9821011b-f5b8-438c-86e6-d64673703499</t>
+          <t>cda082f5-cf3c-4411-be2d-6ea0a117b0f4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,13 +529,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86574.7</v>
+        <v>85912.60000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>86590.2</v>
+        <v>85934.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.5</v>
+        <v>-21.89999999999418</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -533,16 +543,21 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
         <v>0.01</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ad0e6ce4-d635-4bbf-b299-000741dcb6f7</t>
+          <t>431bba68-e329-458e-892b-a9a0a37eaec6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -551,13 +566,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86735.8</v>
+        <v>85773.10000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>86746.60000000001</v>
+        <v>85785</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.80000000000291</v>
+        <v>-11.89999999999418</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -565,106 +580,15 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>f8595866-26c9-40ab-88ba-6cd0e5f1f70b</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>market_buy</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>86915.10000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86897.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-17.30000000000291</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>81147f1d-8568-4312-9048-5af6e9b2fe58</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>market_buy</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>86723.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>86615.10000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-108.0999999999913</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>74152538-5cca-4b6d-90be-668a8ce63b4d</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>market_buy</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>86700.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>86672.10000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-28.69999999999709</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.01</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/loss_trades.xlsx
+++ b/loss_trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,7891 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f991a437-2225-48cd-8aa4-146e9b71872f</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>92825.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92770.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1f8b2c7b-58e6-4e9a-af7c-4a39c02a5d6e</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>92786.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92755.10000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-31.09999999999127</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>b2349ffe-ba2d-4738-bc2c-293cfb12de70</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>92822.60000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>92788.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-34.30000000000291</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>f14bcd3c-6516-49ae-b86d-c36718b1edb4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>92768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92746</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6f2efde3-2ca1-4b0c-9793-2758c732f57c</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>92665.89999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>92688.60000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-22.70000000001164</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>f5a867c1-4728-4e8a-85ce-11b279a1812d</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>92694.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>92716.39999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-22.19999999999709</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>37520e5f-6107-47f6-bd2a-f68f1d46b545</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>92690.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>92730.60000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-40.10000000000582</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>d4f2bd0d-241d-45db-884f-b805b3679257</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>92711</v>
+      </c>
+      <c r="D12" t="n">
+        <v>92731.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-20.69999999999709</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7718f9ea-1c79-413d-a7b9-927cf10bdb43</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>92648.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>92669</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-20.19999999999709</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16c3a507-6340-4cbb-a731-374aa46bcf3a</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>92670.8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>92700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-29.19999999999709</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5353536a-5e33-49d8-a47d-e6eed48d337e</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>92660</v>
+      </c>
+      <c r="D15" t="n">
+        <v>92688.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5b794d62-3181-4d1b-a765-2995f4198ebc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>92720</v>
+      </c>
+      <c r="D16" t="n">
+        <v>92700.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-19.80000000000291</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>969fc8dd-1d8b-4bcc-b50e-280a5808b184</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>92694.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>92674.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-20.30000000000291</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3854d096-e097-4ebf-903c-7864a320d284</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>92676.10000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>92696</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-19.89999999999418</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>54028632-3441-44ec-b1e1-02da01bd2ca9</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>92686.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>92713.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8b57e039-5c1c-4121-86a1-7f0f26349d00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>92770</v>
+      </c>
+      <c r="D20" t="n">
+        <v>92721.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-48.69999999999709</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>df3e18a3-8679-48bf-bce0-c6efa035ba13</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>92857.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>92819.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-37.39999999999418</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>768fad1b-383a-4ef3-863e-49098b455bbd</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>92817.10000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>92797.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-19.80000000000291</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1950540c-aec1-46e1-a9ed-5ff231ff052a</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>92792.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>92765</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-27.30000000000291</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>d337d8e3-694a-48eb-bba6-6e0732264dc9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>92660.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>92708.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-48.19999999999709</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>bd06ef5d-cf7e-4d6c-9eb2-f56d9f7ea3e0</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>92643.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>92671.60000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-27.80000000000291</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>8a5e71c0-6086-4a7c-9629-fe0dddd0e568</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>92661.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>92682.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-20.69999999999709</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0ec9b2dd-9bbd-47b9-af70-122e9fb85a40</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>92577.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>92604.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-26.80000000000291</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>56dcc5a7-02d5-4623-83d8-64c73aa154d5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>92563.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>92586</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-22.19999999999709</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>6c1a2f93-e01b-411c-9da5-0fb622a1f242</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>92586</v>
+      </c>
+      <c r="D29" t="n">
+        <v>92615.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-29.80000000000291</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>80f8f36f-d4d0-4838-95aa-5093c89ee9ca</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>92616.3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>92643.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>8866f040-3a59-480e-b515-b811e0660ec8</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>92668.39999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>92625.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-43.19999999999709</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1a5e30b2-e1e9-4d95-b255-77f709a44794</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>92588.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>92618.89999999999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-30.39999999999418</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>8431d3de-bef4-4b7c-8c55-b09ffbb6acd9</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>92665</v>
+      </c>
+      <c r="D33" t="n">
+        <v>92646.39999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-18.60000000000582</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>115c9d93-c086-4c67-b72b-5b82a500d6e9</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>92699.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>92679.39999999999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-20.30000000000291</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18dbd3a1-21c4-4f6e-a70f-6a8019220379</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>92690</v>
+      </c>
+      <c r="D35" t="n">
+        <v>92667.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-22.19999999999709</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>f1028567-83e9-47cf-88a0-9934fc9c573a</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>92710.89999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>92692.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-18.59999999999127</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>138e9405-b3d8-499a-8833-cb5b81496e44</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>92726.89999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>92704.39999999999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>a20929f9-a97d-461a-ba26-853f6c1e0d76</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>92641.10000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>92659.89999999999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-18.79999999998836</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>52d16c1e-b088-4cd5-b5f3-323406a2010d</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>92676.39999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>92697.2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-20.80000000000291</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3a7db125-78d2-46e8-8a67-ac75c2c81cf2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>92734.89999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>92704.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-30.39999999999418</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>b8b73099-b000-4968-98ed-e5d53336bfaf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>92892.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>92863.39999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-29.40000000000873</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>302ee585-04a0-488a-bcca-9cff876d2750</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>92890.60000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>92870.10000000001</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bf818028-e948-419d-90d4-be16b41c04f3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>92728.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>92754.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-25.89999999999418</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>d940a407-02fc-46d5-ac87-dbb99a0fa682</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>92703.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>92764.8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-61.30000000000291</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ea1193c1-f762-457b-9f05-761f84e4ebd7</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>92834.60000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>92805</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-29.60000000000582</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>68bd0615-c4a5-4d00-b320-fb6be99d6d68</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>92980</v>
+      </c>
+      <c r="D46" t="n">
+        <v>92953.89999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-26.10000000000582</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>86e06f91-bbf5-4734-87e7-9266e02d323f</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>93021.10000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>93001.60000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>c617f17d-1ebe-4bea-b0ca-6b650b594363</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>93042.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>93022.39999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-19.90000000000873</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8878ceed-dbf4-49d1-8774-5bb1243db3d5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>93048.60000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>93027.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-21.10000000000582</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>aac0089a-ca26-4cce-8a7c-0c6e14f43871</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>93027.7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>92975.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-52.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>733c399a-5a04-4478-9f44-94a988765006</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>92986.2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>92949.7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>b87b34eb-ad8f-4dfb-bd96-67f59e08fe13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>92886.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>92909.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>83f462d1-9cc7-442c-a065-c92fcc53c763</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>92932.39999999999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>92968.39999999999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ec6781a7-9ce0-4f90-b834-51fdb39889ec</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>92991.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>92971</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>48513d11-b685-442f-ba64-0a922a4c70a2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>92990.2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>92957</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-33.19999999999709</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1330ac9b-54b7-4775-9f54-4b42a88e61d6</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>92927.39999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>92953</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-25.60000000000582</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>f93dd242-e735-4575-a4ca-97e321cd3368</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>92979.2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>92956.60000000001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-22.59999999999127</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>721abdfc-f17a-4c2a-8d62-127429ca2f03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>92976.2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>92949.89999999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-26.30000000000291</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3dc06945-1dbc-4bae-827c-6f0a85606c8a</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>92880.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>92906.10000000001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-25.80000000000291</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>cb7dbca2-f60e-486f-a7cc-2e80f4a26519</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>92919</v>
+      </c>
+      <c r="D60" t="n">
+        <v>92899.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-19.69999999999709</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>28052960-1462-4da5-b0c8-4557ebdae9e8</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>92899.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>92945.7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-46.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>b7cce7e5-be27-426c-91d8-b1eaf7f59944</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>92926.60000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>92976</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-49.39999999999418</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ddb64f1b-f7b2-4c13-8a04-6c98fc73e212</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>92947.39999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>92914.60000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-32.79999999998836</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>b03a8823-2500-4df1-9a67-d95f3616c59e</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>92881.10000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>92900.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-19.39999999999418</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0cc6b008-fd49-4a5b-8279-792a4a44dd39</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>92848</v>
+      </c>
+      <c r="D65" t="n">
+        <v>92877.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>a30ef895-a650-41e0-b2ae-d4ddb1ba35be</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>92930.10000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>92955.7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-25.59999999999127</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>cb7f3d44-f753-483e-8f2e-3fddb364c347</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>92993.2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>92964.10000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-29.09999999999127</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>64ed5e5a-ac94-4c85-bd60-b3e6cdaa599b</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>92956</v>
+      </c>
+      <c r="D68" t="n">
+        <v>92932.5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4e72e83f-f0a9-482c-b2c0-2b317f8047d4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>92932.60000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>92913.2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-19.40000000000873</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>c516ca90-f3eb-4663-8da9-4faa60c59e98</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>92850.2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>92873.8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-23.60000000000582</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>d1fb36d7-d113-4380-b0f9-1d550c6d9b2b</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>92934.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>92902.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-32.30000000000291</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>15d34792-c7ec-4b5b-b3b8-dd0ed0e19f32</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>92895.60000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>92930.10000000001</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-34.5</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0f7c4f65-b883-49de-a881-b9494545a048</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>92982.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>92953.3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>80b7b5b3-2ebc-4dcd-988b-1924aa3ce02b</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>92955.89999999999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>92933.89999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>040c1b17-7132-493b-95a3-cd30550a0ca5</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>92940.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>92900</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>78add885-f983-4908-982a-742dce8b620f</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>92895</v>
+      </c>
+      <c r="D76" t="n">
+        <v>92923.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-28.80000000000291</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1339aed4-87fe-4c5f-8543-f81ec43d4625</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>92956.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>92976.10000000001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-19.40000000000873</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>b31c5309-667f-40a9-97d5-7b6ce48c2dee</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>92969.39999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>92941.8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-27.59999999999127</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>743d1745-3be7-4082-a10e-2df620fc0e1f</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>93106</v>
+      </c>
+      <c r="D79" t="n">
+        <v>93079.2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-26.80000000000291</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>dbe1e86a-4ac2-4917-8c5d-2853d6678053</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>93085.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>93060</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-25.69999999999709</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>786f9d38-7830-490c-a3bf-fda038acd28b</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>93160</v>
+      </c>
+      <c r="D81" t="n">
+        <v>93137</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>13e15148-7b96-4b91-8375-92075e076f53</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>93145.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>93076.2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-69.5</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>8feede96-d552-4fbc-9d1f-f821f48d9b6d</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>93140.39999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>93115.8</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-24.59999999999127</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2ab9e6f8-fa7e-43b0-bc74-12bc690a1a6c</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>93175.10000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>93152</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-23.10000000000582</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>a552c706-fc65-4e39-985a-45f4206ccfc0</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>93192.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>93164.7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-27.80000000000291</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2a7662bf-b877-4e79-8802-75151b937979</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>93230</v>
+      </c>
+      <c r="D86" t="n">
+        <v>93203.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-26.80000000000291</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>8bb4e026-c0ef-4a96-81e2-e1a1d9d12611</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>93230</v>
+      </c>
+      <c r="D87" t="n">
+        <v>93199.60000000001</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-30.39999999999418</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>d5b36325-1866-4834-9fb7-08e7d7e380d3</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>93210</v>
+      </c>
+      <c r="D88" t="n">
+        <v>93187.8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-22.19999999999709</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>eaf6e326-e3c4-435c-86e6-68b75c6abfc9</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>93262.60000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>93210.10000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-52.5</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>d9615e30-9df3-481c-a01b-36a23ef5d4d4</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>93272.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>93250</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-22.19999999999709</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>8b7c45a7-a5d2-4ece-8995-81045f0c8f3f</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>93283</v>
+      </c>
+      <c r="D91" t="n">
+        <v>93257.8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-25.19999999999709</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>c2976636-3c9e-452c-96a4-f09a8084957f</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>93142</v>
+      </c>
+      <c r="D92" t="n">
+        <v>93165.7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-23.69999999999709</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>403782e9-a430-436b-9e1b-7cffa9c4f37f</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>93140.3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>93159.7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-19.39999999999418</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>41896425-52f1-48f4-a78c-abf2ff046ace</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>93163.10000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>93184.89999999999</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-21.79999999998836</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>89d02d50-4fc9-4bf4-9067-efd3911bbbe8</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>93194.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>93173.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-20.89999999999418</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ff2d38d6-2ce9-4462-8aba-722a273f5d9d</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>93276.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>93237.10000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-39.19999999999709</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>d93f3e6d-9fc5-45b8-9096-780be8855fa9</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>92875.10000000001</v>
+      </c>
+      <c r="D97" t="n">
+        <v>92915</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-39.89999999999418</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>99d0d788-7e28-462c-aef2-21e8c88a9076</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>92889.89999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>92933.60000000001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-43.70000000001164</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>910a13fc-f53f-4365-ab83-f0ff3fb0017f</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>92992.8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>93025.39999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-32.59999999999127</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>5627994d-6f2c-451f-9b40-df191ee4805f</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>93067.2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>93044.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-22.39999999999418</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>497fe96f-8fbb-4935-93bb-05380e3bf3c0</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>93069.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>93050.10000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-19.69999999999709</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>bb44cbba-e2f0-4c96-ad9a-f0d425333055</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>93050.10000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>93002.89999999999</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-47.20000000001164</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>b5ff3917-14a9-46ed-821d-c5949ee9df39</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>93016.10000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>92978.3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-37.80000000000291</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>a195056f-ae1a-4bdb-a34a-a56d7efefabc</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>92897.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>92918.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-21.10000000000582</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ecf52d0e-d6df-4c20-8660-921a5c769868</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>92929.89999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>92950</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-20.10000000000582</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1f9b6a5f-70a3-4814-8223-f49fabd0d8c8</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>92918</v>
+      </c>
+      <c r="D106" t="n">
+        <v>92943.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-25.19999999999709</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>55ad6b78-d7e0-4e8c-96df-e9af86fdd965</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>92959.89999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>92979.89999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>5ca193d4-3cf6-4ae3-ba2f-740fd84032d2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>92955.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>92977</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>a5591c84-e70c-41e6-8e1d-969041229618</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>92970.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>92933.10000000001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-37.09999999999127</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20693551-ae19-41f1-ba22-2a845ce5aa1b</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>92929.39999999999</v>
+      </c>
+      <c r="D110" t="n">
+        <v>92901.3</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-28.09999999999127</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>69a3ab5f-2d62-4507-b2ee-13773ca399b7</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>92781.10000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>92800</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-18.89999999999418</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0b3dd731-c4e7-4541-9fab-187e18e5a8ea</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>92740.60000000001</v>
+      </c>
+      <c r="D112" t="n">
+        <v>92759.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-18.69999999999709</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>078ba5ac-a81a-4642-8bba-e1ef33acc8e6</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>92722.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>92744.89999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-22.19999999999709</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>318ff068-aa3c-49ae-8258-49ee10a3d138</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>92720</v>
+      </c>
+      <c r="D114" t="n">
+        <v>92744.89999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-24.89999999999418</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>22db2c1b-546c-4d9e-986d-cc03209c6303</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>92777.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>92749.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-28</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3d5d8874-4701-42eb-abfb-659d7bc6a15f</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>92703.10000000001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>92725</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-21.89999999999418</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7e72b732-c45b-409d-b1ff-6cd5160f58c4</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>92079.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>92157</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-77.19999999999709</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>a7e46d24-dbdf-4c2e-8051-cd63fce8f228</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>92014.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>92042.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-27.80000000000291</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>13e54bdd-b2a3-49e2-81bd-adca56b604d6</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>92019.10000000001</v>
+      </c>
+      <c r="D119" t="n">
+        <v>92060.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-41.09999999999127</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>b1748d4c-7b88-464f-b0cf-5c90c4f7c9e0</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>91960.39999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>91994.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-33.80000000000291</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>178cf6d1-2401-44a8-bf44-d1990c97d6d0</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>92036.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>91979.39999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-57.10000000000582</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0b271f58-d698-43ce-8704-e9f364ac0917</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>92236.89999999999</v>
+      </c>
+      <c r="D122" t="n">
+        <v>92136.89999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>42beeb92-5733-4300-a567-0cf7caee8111</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>92130</v>
+      </c>
+      <c r="D123" t="n">
+        <v>92082.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-47.5</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>69efe095-afa8-4f51-b7e2-73571d67f6e6</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>92020.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>91932</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-88.80000000000291</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>f3753980-9d21-4ffa-80aa-fbe05d8defb4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>91322.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>91369.89999999999</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-47.19999999999709</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>92f34e58-6417-4799-9dc2-9bb304bce298</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>91305.60000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>91344</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-38.39999999999418</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>9ec55dde-061b-42b5-acd6-34d31e3130ba</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>91333.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>91383.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-49.69999999999709</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>be557eb1-f6a8-4f1d-bdd3-864730d90828</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>91594.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>91560.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-33.69999999999709</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>5e13f67f-c52c-4660-b41f-1cfa1135cacb</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>91685</v>
+      </c>
+      <c r="D129" t="n">
+        <v>91664.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-20.19999999999709</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>140eb876-aabd-4ed2-9f50-765d72cc1317</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>91557.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>91506.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-51.10000000000582</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>a3b9f921-a57b-49cb-b426-2dd469b3b975</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>91329.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>91368.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-39.30000000000291</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>b1d3f7f8-1f52-400e-a3e4-8e6d9c14c9dd</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>91215.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>91250.10000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-34.90000000000873</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>25512b47-21cf-4d48-9452-a329f6c2f21b</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>91226.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>91384.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-158</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>38e7f197-6e91-41f2-bc35-5647fb8863e3</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>91719.39999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>91660</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-59.39999999999418</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>dd810e32-4ae2-4ee8-a7b2-f439a68edd78</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>91780.10000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>91724.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-55.60000000000582</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4fd90082-bf04-4ddf-9d45-fa833a42f771</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>91546.60000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>91510.10000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>c509977e-3ef8-4289-862c-a2f8ea70042f</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>91439.89999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>91583.89999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-144</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>9f2f8278-4c42-4c3d-9170-e268ee70b6fd</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>91520</v>
+      </c>
+      <c r="D138" t="n">
+        <v>91615.39999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-95.39999999999418</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2616d852-0a0e-4122-b791-49246e745f1b</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>91868</v>
+      </c>
+      <c r="D139" t="n">
+        <v>91845.10000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-22.89999999999418</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>a4cfdd75-7c48-4504-8939-82a4a2f9b10a</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>91985.89999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>91946.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-39.69999999999709</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>eb6b29aa-7920-49df-8f5f-cd0cb6834a3b</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>92025.39999999999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>91987.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-37.59999999999127</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>60e47fd1-29a7-4641-8d2c-d55173c5de85</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>91748.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>91820.39999999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-71.59999999999127</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>50d63fe5-e7ec-43d5-9198-b43bf8699348</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>91906</v>
+      </c>
+      <c r="D143" t="n">
+        <v>91880.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-25.80000000000291</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>293cd1c4-96b4-4df9-ade7-d4f66f4bbcc9</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>91972</v>
+      </c>
+      <c r="D144" t="n">
+        <v>91925.10000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-46.89999999999418</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>bcb05e4b-ef5d-43ee-b59a-7a7aee83aeac</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>91922.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>91900.39999999999</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-21.90000000000873</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>bda0d57f-1757-4f69-a2b6-0f9cdd276e76</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>91896.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>91873.89999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-22.80000000000291</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>eec7b250-0700-4b96-b036-aea90bdf9590</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>91850.10000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>91899.89999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-49.79999999998836</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>c96b6b16-6dd2-4e05-bd1b-0570228e5fed</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>91640</v>
+      </c>
+      <c r="D148" t="n">
+        <v>91663.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-23.19999999999709</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>a4ba9834-b18b-413d-9315-7fd5617f6de9</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>91703.60000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>91738.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-34.89999999999418</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>e2fbcd0a-667c-4751-b152-02eed794a71e</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>91720</v>
+      </c>
+      <c r="D150" t="n">
+        <v>91760</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>55b70010-2c71-4dd0-9e77-4ece1c4a2e5f</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>92054.89999999999</v>
+      </c>
+      <c r="D151" t="n">
+        <v>92030.60000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-24.29999999998836</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>68b82800-e061-41f4-91ed-5eb155a004ec</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>92105</v>
+      </c>
+      <c r="D152" t="n">
+        <v>92043.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-61.19999999999709</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>9ba51bfd-6f9f-4471-91e5-3a04293093f7</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>92078.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>92044</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-34.80000000000291</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>91a859cf-6821-442c-8f30-2b4a7a88a2f1</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>91946</v>
+      </c>
+      <c r="D154" t="n">
+        <v>91978.89999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-32.89999999999418</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>fb4b1e79-6916-478e-93b0-fd9e1c51c87b</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>92176.60000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>92133.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-43.30000000000291</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>29a3fcad-517e-4c78-b3f3-ac93e8d61a67</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>92124.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>92103.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-20.80000000000291</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>c6b8d500-5ddf-4b91-898e-723762b1909f</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>92099.89999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>92121.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-21.80000000000291</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>9a1a2540-5086-4dd4-bcab-c3f5d598e522</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>92066.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>92047.60000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-18.59999999999127</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ba20f923-dd82-4fcc-b52e-f8a97aa5f33e</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>92050</v>
+      </c>
+      <c r="D159" t="n">
+        <v>92079.89999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-29.89999999999418</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>549d47cd-60aa-40b9-b0ed-7d1ea2ee72ea</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>92238.89999999999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>92203.39999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>a46a3f6a-5c35-4f7f-8cb0-30891487673f</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>92231.60000000001</v>
+      </c>
+      <c r="D161" t="n">
+        <v>92188.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-43.40000000000873</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>e66a11c2-1b72-4b95-84af-94241912e713</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>92268.89999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>92233.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-35.19999999999709</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>0937b3e2-4158-49cf-acd5-7e1eef6b5dbc</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>92195.39999999999</v>
+      </c>
+      <c r="D163" t="n">
+        <v>92215.39999999999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>8ee6cece-7c18-4a5b-ade1-7954d0d081e3</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>92110.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>92069</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-41.80000000000291</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>0ac57276-a232-4757-924b-f1b704ac94df</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>92040</v>
+      </c>
+      <c r="D165" t="n">
+        <v>92012</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-28</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>9d5a3c4c-45ba-4db3-9290-3fd2454c59f8</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>91406.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>91453.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-47.10000000000582</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>fb6f6981-de2d-41da-95f9-d43a158770dd</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>91217</v>
+      </c>
+      <c r="D167" t="n">
+        <v>91254.10000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-37.10000000000582</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>a7925e99-1f85-4542-b5ad-56d71fc0f5c2</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>91198.89999999999</v>
+      </c>
+      <c r="D168" t="n">
+        <v>91262.39999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-63.5</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>adb4da19-ab0d-486f-a19e-0336c20f1439</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>91221.89999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>91251.60000000001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-29.70000000001164</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>655b4015-7c1c-4e9f-bdfd-d1f63f7cae95</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>91251.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>91287.89999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-36.59999999999127</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2fe140d9-3f74-4be1-8c33-42e254a16532</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>91180.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>91214.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-34.10000000000582</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>92d83e3e-1428-4285-8364-7bb856f51796</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>91276</v>
+      </c>
+      <c r="D172" t="n">
+        <v>91344.3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-68.30000000000291</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>806e8575-b4f3-40e3-8ca5-ea160935cdbb</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>91412.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>91356.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-55.69999999999709</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>b6b5da71-9a05-4816-9d56-9595217fabbb</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>91347.2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>91299.89999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-47.30000000000291</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>333197e6-a4c8-4e65-b62c-b28d85f1fbb8</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>91500.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>91421.2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-79.10000000000582</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>bd9f7880-e7ff-4cc3-a239-8fa6d81328e9</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>91367.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>91321.39999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-45.90000000000873</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>acfb65c9-8bea-495b-8706-0757ef436423</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>91212.89999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>91263.10000000001</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-50.20000000001164</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>15b2ce8e-73d6-4dba-87bc-979936a2b931</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>91189.60000000001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>91220</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-30.39999999999418</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>13327bbb-70bc-4027-b292-20d5c6293295</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>91172.10000000001</v>
+      </c>
+      <c r="D179" t="n">
+        <v>91212.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-40.19999999999709</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>e70f7fbe-bb41-4b50-9876-ded43bcae57f</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>91266.60000000001</v>
+      </c>
+      <c r="D180" t="n">
+        <v>91287.60000000001</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2c817774-903e-4f1d-a7da-678f49b371dd</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>91437.3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>91401.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1e40aff4-50db-453a-89ca-97b131c53605</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>91556.39999999999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>91529.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-26.69999999999709</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>85d87d9e-6c97-48b4-beff-1b41c84d8be2</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>91533.89999999999</v>
+      </c>
+      <c r="D183" t="n">
+        <v>91490.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-43.69999999999709</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>d79ce3d6-976f-424a-ab92-d4403e15b262</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>91569.89999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>91521.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-48.69999999999709</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>b71ab2a4-ebf9-4019-b412-27e0ff908db5</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>91506.60000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>91479.89999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-26.70000000001164</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>7b64fdb1-83e3-46ae-a7a3-0584d56dd18d</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>91491.39999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>91461.89999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>99ce9d61-02d2-459a-bbd2-05b6526d8901</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>91402.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>91370.39999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-31.90000000000873</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>c2b3122d-7190-4556-a021-f0e8dfa9749f</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>91480</v>
+      </c>
+      <c r="D188" t="n">
+        <v>91436.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-43.80000000000291</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>13cae62b-cf60-402d-82e5-635bcf918320</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>91400.39999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>91423.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-22.90000000000873</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>34d78c43-dca3-4079-84b2-a077a0f2b2d3</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>91440.39999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>91476.60000000001</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-36.20000000001164</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>40921ebf-e59e-404c-a081-15319d0a1495</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>91642</v>
+      </c>
+      <c r="D191" t="n">
+        <v>91613.89999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-28.10000000000582</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>bb72d84a-3da8-42cf-99f2-eb3cf67435eb</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>91592.10000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>91563.89999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-28.20000000001164</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1836fdf9-7ce8-4401-866e-0d810c059594</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>91673.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>91650.60000000001</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-23.09999999999127</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>21fbd845-6baa-443b-ab14-1c8a6fa22f94</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>91843</v>
+      </c>
+      <c r="D194" t="n">
+        <v>91822</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>3f4e54a0-dfe0-42c9-89b0-84676352d1fa</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>91800.10000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>91754</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-46.10000000000582</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>be78ca37-b401-46c1-a828-7a97cfea9dbf</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>91800.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>91727.60000000001</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-72.59999999999127</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>d3e7413e-dc25-4c1f-9dd5-aebe6cb3b94a</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>91734.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>91710</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-24.80000000000291</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>153d5d48-2d74-4548-8f43-bfec17beba19</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>91684.3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>91640</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-44.30000000000291</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>a350a4d2-1aae-483f-9b99-c2c99b131c86</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>91780</v>
+      </c>
+      <c r="D199" t="n">
+        <v>91759.89999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-20.10000000000582</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>7485bea2-aa73-46b5-88a7-ee232bd08be7</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>91720.8</v>
+      </c>
+      <c r="D200" t="n">
+        <v>91689.60000000001</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-31.19999999999709</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>e8c654c3-7cb2-4fe8-ba78-f93d17d66ede</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>91656.8</v>
+      </c>
+      <c r="D201" t="n">
+        <v>91627.10000000001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-29.69999999999709</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>aaed747c-ed3c-4187-9faf-7e2a90ce6985</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>91615.10000000001</v>
+      </c>
+      <c r="D202" t="n">
+        <v>91685.39999999999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-70.29999999998836</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>f1223603-7200-4f13-a835-b344aeff2519</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>91749.89999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>91821.89999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-72</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>083fff1c-0f36-491c-b35b-5fcea15b3969</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>91885.8</v>
+      </c>
+      <c r="D204" t="n">
+        <v>91819.60000000001</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-66.19999999999709</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>b53ada50-0bb7-4c7a-a4be-83ee90ea9b0b</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>91823.10000000001</v>
+      </c>
+      <c r="D205" t="n">
+        <v>91779.8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-43.30000000000291</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>71220728-6d0e-42c6-901e-c07af0ffb76e</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>91815.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>91754.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-60.5</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>d0c1549d-a35c-4fb2-9669-c52884634bfa</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>91730</v>
+      </c>
+      <c r="D207" t="n">
+        <v>91748.39999999999</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-18.39999999999418</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>14945b48-056a-4b3a-aa9d-8d31c2a8b949</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>91743.7</v>
+      </c>
+      <c r="D208" t="n">
+        <v>91725</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-18.69999999999709</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>6e981fa4-9a8e-4b82-8af6-2c15607d00cb</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>91617.3</v>
+      </c>
+      <c r="D209" t="n">
+        <v>91692.39999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-75.09999999999127</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3ba98668-4172-40d7-899c-aad561babee5</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>91650.3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>91687.39999999999</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-37.09999999999127</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>41b1b8e9-ce7d-4857-aee6-34f9daed06a2</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>91322.39999999999</v>
+      </c>
+      <c r="D211" t="n">
+        <v>91346.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-24.10000000000582</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>45f77f9e-10c0-4486-8804-75176d1e63b2</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>91321.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>91367.60000000001</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-46.10000000000582</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1a7e2e0f-749e-4694-9b01-973589a80b8c</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>market_sell</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>91426.2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>91482.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ec7ff5a0-743d-491c-bc88-beec3ced4fa1</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>91660.10000000001</v>
+      </c>
+      <c r="D214" t="n">
+        <v>91589.8</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-70.30000000000291</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>8c302990-ecef-4c3c-85a0-2d312dfd9348</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>91630.10000000001</v>
+      </c>
+      <c r="D215" t="n">
+        <v>91569.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-60.60000000000582</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>d76e017a-a7ca-44a4-8aa2-090955f62374</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>91611.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>91590</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-21.30000000000291</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>e7eeb4e8-2c85-4f3b-8b2f-bfbb156c80f8</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>market_buy</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>91620.39999999999</v>
+      </c>
+      <c r="D217" t="n">
+        <v>91593.2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-27.19999999999709</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
